--- a/Tests/Validation/Wheat/FAR/Observed/FAR HYC W19-06-1.xlsx
+++ b/Tests/Validation/Wheat/FAR/Observed/FAR HYC W19-06-1.xlsx
@@ -23,161 +23,161 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="51">
-  <si>
-    <t>SimulationName</t>
-  </si>
-  <si>
-    <t>Clock.Today</t>
-  </si>
-  <si>
-    <t>Plot</t>
-  </si>
-  <si>
-    <t>Rep</t>
-  </si>
-  <si>
-    <t>Wheat.Phenology.CurrentStageName</t>
-  </si>
-  <si>
-    <t>Experiment</t>
-  </si>
-  <si>
-    <t>PGR</t>
-  </si>
-  <si>
-    <t>Wheat.SowingData.Cultivar</t>
-  </si>
-  <si>
-    <t>Potential</t>
-  </si>
-  <si>
-    <t>NDVIModel.Script.NDVI</t>
-  </si>
-  <si>
-    <t>NDVIModel.Script.NDVI.err</t>
-  </si>
-  <si>
-    <t>Wheat.AboveGround.Wt</t>
-  </si>
-  <si>
-    <t>Wheat.AboveGround.Wt.err</t>
-  </si>
-  <si>
-    <t>Wheat.Lodging</t>
-  </si>
-  <si>
-    <t>Wheat.Lodging.err</t>
-  </si>
-  <si>
-    <t>Wheat.Spike.HeadNumber</t>
-  </si>
-  <si>
-    <t>Wheat.Spike.HeadNumber.err</t>
-  </si>
-  <si>
-    <t>Wheat.Leaf.Height</t>
-  </si>
-  <si>
-    <t>Wheat.Leaf.Height.err</t>
-  </si>
-  <si>
-    <t>Wheat.Grain.Density</t>
-  </si>
-  <si>
-    <t>Wheat.Grain.Density.err</t>
-  </si>
-  <si>
-    <t>Wheat.Grain.Moisture</t>
-  </si>
-  <si>
-    <t>Wheat.Grain.Moisture.err</t>
-  </si>
-  <si>
-    <t>Wheat.Grain.Protein</t>
-  </si>
-  <si>
-    <t>Wheat.Grain.Protein.err</t>
-  </si>
-  <si>
-    <t>Wheat.Grain.Screenings</t>
-  </si>
-  <si>
-    <t>Wheat.Grain.Screenings.err</t>
-  </si>
-  <si>
-    <t>Wheat.Grain.Wt</t>
-  </si>
-  <si>
-    <t>Wheat.Grain.Wt.err</t>
-  </si>
-  <si>
-    <t>FAR HYC W19-06-1</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>Accroc</t>
-  </si>
-  <si>
-    <t>near</t>
-  </si>
-  <si>
-    <t>FAR HYC W19-06-1PGRNoneCvAccroc</t>
-  </si>
-  <si>
-    <t>Single</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>FAR HYC W19-06-1PGRSingleCvAccroc</t>
-  </si>
-  <si>
-    <t>Split both</t>
-  </si>
-  <si>
-    <t>FAR HYC W19-06-1PGRSplit bothCvAccroc</t>
-  </si>
-  <si>
-    <t>Split Errex</t>
-  </si>
-  <si>
-    <t>FAR HYC W19-06-1PGRSplit ErrexCvAccroc</t>
-  </si>
-  <si>
-    <t>Triple</t>
-  </si>
-  <si>
-    <t>FAR HYC W19-06-1PGRTripleCvAccroc</t>
-  </si>
-  <si>
-    <t>Bennett</t>
-  </si>
-  <si>
-    <t>FAR HYC W19-06-1PGRNoneCvBennett</t>
-  </si>
-  <si>
-    <t>FAR HYC W19-06-1PGRSingleCvBennett</t>
-  </si>
-  <si>
-    <t>FAR HYC W19-06-1PGRSplit bothCvBennett</t>
-  </si>
-  <si>
-    <t>FAR HYC W19-06-1PGRSplit ErrexCvBennett</t>
-  </si>
-  <si>
-    <t>FAR HYC W19-06-1PGRTripleCvBennett</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>HarvestRipe</t>
-  </si>
-</sst>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="51">
+  <x:si>
+    <x:t>SimulationName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Clock.Today</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Plot</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rep</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Phenology.CurrentStageName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Experiment</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PGR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.SowingData.Cultivar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Potential</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Spectral.NDVI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Spectral.NDVI.err</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.AboveGround.Wt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.AboveGround.Wt.err</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Lodging</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Lodging.err</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Spike.HeadNumber</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Spike.HeadNumber.err</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Leaf.Height</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Leaf.Height.err</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Grain.Density</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Grain.Density.err</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Grain.Moisture</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Grain.Moisture.err</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Grain.Protein</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Grain.Protein.err</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Grain.Screenings</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Grain.Screenings.err</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Grain.Wt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Grain.Wt.err</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FAR HYC W19-06-1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>None</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Accroc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>near</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FAR HYC W19-06-1PGRNoneCvAccroc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Single</x:t>
+  </x:si>
+  <x:si>
+    <x:t>yes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FAR HYC W19-06-1PGRSingleCvAccroc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Split both</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FAR HYC W19-06-1PGRSplit bothCvAccroc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Split Errex</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FAR HYC W19-06-1PGRSplit ErrexCvAccroc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Triple</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FAR HYC W19-06-1PGRTripleCvAccroc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bennett</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FAR HYC W19-06-1PGRNoneCvBennett</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FAR HYC W19-06-1PGRSingleCvBennett</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FAR HYC W19-06-1PGRSplit bothCvBennett</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FAR HYC W19-06-1PGRSplit ErrexCvBennett</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FAR HYC W19-06-1PGRTripleCvBennett</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>HarvestRipe</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
